--- a/src/test/resources/excel/xlsx/template_file3.xlsx
+++ b/src/test/resources/excel/xlsx/template_file3.xlsx
@@ -583,167 +583,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="20.25" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="1"/>
-      <c r="E1" s="11"/>
+    <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="6">
+        <v>42364.847222222219</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="8">
+      <c r="H3" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6">
+      <c r="K3" s="14">
         <v>42364.847222222219</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="L3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="M3" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D3" s="12"/>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K3" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="14">
-        <v>42364.847222222219</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D6" s="10" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D8" s="10" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="13"/>
+    <row r="9" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
       <formula1>"Please select,AA,BB,CC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
       <formula1>"Please select,Option1,Option2,Option3"</formula1>
     </dataValidation>
   </dataValidations>
